--- a/dashboard/public/norang_template.xlsx
+++ b/dashboard/public/norang_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\개발\부고장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\성원플라워\dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="240" windowWidth="27570" windowHeight="14960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>구분</t>
   </si>
@@ -63,60 +63,6 @@
     <t>거래처</t>
   </si>
   <si>
-    <t>이상훈</t>
-  </si>
-  <si>
-    <t>서울시 중구 남대문로9일 24, 713호</t>
-  </si>
-  <si>
-    <t>트래블네트웍스파트너 (TNP)</t>
-  </si>
-  <si>
-    <t>서유럽팀</t>
-  </si>
-  <si>
-    <t>최영민</t>
-  </si>
-  <si>
-    <t>서울 종로구 세종대로 149 18층 카타르항공</t>
-  </si>
-  <si>
-    <t>카타르항공</t>
-  </si>
-  <si>
-    <t>동유럽/발칸팀</t>
-  </si>
-  <si>
-    <t>아흐마드 하마드 샤박</t>
-  </si>
-  <si>
-    <t>근조화환</t>
-  </si>
-  <si>
-    <t>부산보훈병원 장례식장 203호</t>
-  </si>
-  <si>
-    <t>투어비</t>
-  </si>
-  <si>
-    <t>부산상품팀</t>
-  </si>
-  <si>
-    <t>서지연실장님</t>
-  </si>
-  <si>
-    <t>서울 서초구 서초대로 396, 강남빌딩 3층 333호</t>
-  </si>
-  <si>
-    <t>(주)엑스트라이버 / 트립스토어</t>
-  </si>
-  <si>
-    <t>제휴영업팀</t>
-  </si>
-  <si>
-    <t>박상훈</t>
-  </si>
-  <si>
     <t>소    계</t>
   </si>
   <si>
@@ -124,21 +70,6 @@
   </si>
   <si>
     <t>임직원</t>
-  </si>
-  <si>
-    <t>결혼화환</t>
-  </si>
-  <si>
-    <t>서울 서초구 잠원로 145-35 마레보인웨이브</t>
-  </si>
-  <si>
-    <t>본인결혼</t>
-  </si>
-  <si>
-    <t>중국팀</t>
-  </si>
-  <si>
-    <t>박해진</t>
   </si>
   <si>
     <t>사내
@@ -676,11 +607,41 @@
     <xf numFmtId="41" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,36 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,40 +943,40 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="C27" sqref="C27:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.08203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.9140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.9140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="21" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="21" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="22"/>
@@ -1055,12 +986,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1095,128 +1026,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
-        <v>46073</v>
-      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24">
-        <v>100000</v>
-      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
-        <v>46064</v>
-      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="24">
-        <v>100000</v>
-      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="18">
-        <v>46063</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="24">
-        <v>100000</v>
-      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
-        <v>46058</v>
-      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="24">
-        <v>100000</v>
-      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -1230,8 +1103,8 @@
       <c r="J8" s="24"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -1245,8 +1118,8 @@
       <c r="J9" s="24"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -1260,8 +1133,8 @@
       <c r="J10" s="24"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -1275,8 +1148,8 @@
       <c r="J11" s="24"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -1290,8 +1163,8 @@
       <c r="J12" s="24"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -1305,8 +1178,8 @@
       <c r="J13" s="24"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -1320,8 +1193,8 @@
       <c r="J14" s="24"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -1335,8 +1208,8 @@
       <c r="J15" s="24"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -1350,8 +1223,8 @@
       <c r="J16" s="24"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -1365,8 +1238,8 @@
       <c r="J17" s="24"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -1380,8 +1253,8 @@
       <c r="J18" s="24"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -1395,8 +1268,8 @@
       <c r="J19" s="24"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -1410,8 +1283,8 @@
       <c r="J20" s="24"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -1425,8 +1298,8 @@
       <c r="J21" s="24"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="32"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -1440,8 +1313,8 @@
       <c r="J22" s="24"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -1455,8 +1328,8 @@
       <c r="J23" s="24"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -1470,25 +1343,25 @@
       <c r="J24" s="24"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+    <row r="25" spans="1:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="25">
         <f>SUM(J4:J24)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>9</v>
@@ -1523,86 +1396,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="40" t="s">
-        <v>34</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="18">
-        <v>46081</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="26">
-        <v>100000</v>
-      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="30">
         <v>2</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="30">
         <v>3</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="30">
         <v>4</v>
       </c>
-      <c r="C30" s="48"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
       <c r="B31" s="7">
         <v>5</v>
       </c>
@@ -1616,25 +1473,25 @@
       <c r="J31" s="26"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="41"/>
-      <c r="B32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+    <row r="32" spans="1:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40"/>
+      <c r="B32" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="27">
         <f>SUM(J27:J31)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1667,9 +1524,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="40" t="s">
-        <v>40</v>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -1682,8 +1539,8 @@
       <c r="J34" s="28"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="32"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -1695,39 +1552,39 @@
       <c r="J35" s="28"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="41"/>
-      <c r="B36" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
       <c r="J36" s="27">
         <f>SUM(J34:J35)</f>
         <v>0</v>
       </c>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
+    <row r="37" spans="1:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
       <c r="J37" s="29">
         <f>SUM(J25,J32,J36)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="K37" s="14"/>
     </row>
@@ -1745,6 +1602,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dashboard/public/norang_template.xlsx
+++ b/dashboard/public/norang_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\성원플라워\dashboard\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\성광영\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:J28"/>
+      <selection activeCell="C27" sqref="C27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
